--- a/documents/TestCaseDocument_378.xlsx
+++ b/documents/TestCaseDocument_378.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naveen S\Documents\ManualTesting\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD59F9F-2ED3-4AAA-ACC7-45B35585C497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2501967-003A-408D-A0A5-E3168C13A0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Details" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>Test Steps</t>
   </si>
@@ -239,7 +239,22 @@
     <t>Description field should updated</t>
   </si>
   <si>
-    <t>Payment should be completed and Payment Successful message should displayed</t>
+    <t>User is navigated to the Home page</t>
+  </si>
+  <si>
+    <t>User is navigate to the Login Page</t>
+  </si>
+  <si>
+    <t>Username is updated</t>
+  </si>
+  <si>
+    <t>Password is should updated</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Payment should be completed and Transaction Successful message should displayed</t>
   </si>
 </sst>
 </file>
@@ -446,14 +461,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -804,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,10 +959,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T655"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="124" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D42" sqref="D42"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +972,8 @@
     <col min="3" max="3" width="28" style="3" customWidth="1"/>
     <col min="4" max="4" width="36.21875" style="3" customWidth="1"/>
     <col min="5" max="5" width="36.109375" style="3" customWidth="1"/>
-    <col min="6" max="7" width="19.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="3" customWidth="1"/>
     <col min="8" max="9" width="23.109375" style="3" customWidth="1"/>
     <col min="10" max="20" width="9.109375" customWidth="1"/>
   </cols>
@@ -1012,11 +1028,14 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -1031,6 +1050,9 @@
       <c r="E3" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -1047,6 +1069,9 @@
       <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -1063,6 +1088,9 @@
       <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -1076,6 +1104,9 @@
       <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -1089,6 +1120,9 @@
       <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -1102,6 +1136,9 @@
       <c r="E8" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -1112,11 +1149,14 @@
       <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1126,13 +1166,15 @@
       <c r="C10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F10"/>
+      <c r="F10" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -1145,7 +1187,9 @@
       <c r="E11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -1160,6 +1204,9 @@
       <c r="E12" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="F12" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -1171,7 +1218,10 @@
         <v>57</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -1201,7 +1251,7 @@
       <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1301,7 +1351,7 @@
       <c r="C23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3472,12 +3522,12 @@
       <c r="A655" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F163:G996 E72:E162 D28:D71">
+  <conditionalFormatting sqref="D28:D71 E72:E162 F163:G996">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Can't Test">
       <formula>NOT(ISERROR(SEARCH("Can't Test",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F163:G1048576 F1:G1 E72:E162 D28:D71">
+  <conditionalFormatting sqref="D28:D71 E72:E162 F163:G1048576 F1:G1">
     <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
       <formula>"Incorrect"</formula>
     </cfRule>
@@ -3544,10 +3594,10 @@
       <c r="A7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="2"/>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
